--- a/project/uploads/93/split_output/8压料板导向限位.xlsx
+++ b/project/uploads/93/split_output/8压料板导向限位.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEB9B94E-7EFB-4D0A-9F2B-45660EC6D098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C6DF2CC-834B-4E6D-B18C-7EEDFAD244D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{430640FD-BD0E-4902-8A32-58FCFE00E7FC}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8170" xr2:uid="{8F762ECD-7D52-4405-A4AB-66252E9CF6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="8压料板导向限位" sheetId="1" r:id="rId1"/>
@@ -2349,7 +2349,7 @@
         <xdr:cNvPr id="2" name="Picture 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C21741F-2C04-46C2-9878-F700A5AE81D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42D89AE-9002-4182-876D-B2003DD051D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,8 +2366,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1303020" y="8317230"/>
-          <a:ext cx="1524000" cy="1339215"/>
+          <a:off x="1301750" y="8515350"/>
+          <a:ext cx="1524000" cy="1374775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2401,7 +2401,7 @@
         <xdr:cNvPr id="3" name="Picture 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C401E3C5-6CCC-4E87-A6B2-02C42206C1F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56676689-2051-4B6E-9DC3-606F8E6E7FA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,8 +2418,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2960370" y="8353425"/>
-          <a:ext cx="1524000" cy="1264921"/>
+          <a:off x="2959100" y="8556625"/>
+          <a:ext cx="1524000" cy="1295401"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2453,7 +2453,7 @@
         <xdr:cNvPr id="4" name="Picture 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC818F5-21AA-4D52-9C6E-7AF09A470AF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F5F2D3-5BFE-411C-ACC1-70394F25691D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,8 +2470,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1626870" y="22852380"/>
-          <a:ext cx="1181100" cy="1133475"/>
+          <a:off x="1625600" y="23380700"/>
+          <a:ext cx="1181100" cy="1158875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2505,7 +2505,7 @@
         <xdr:cNvPr id="5" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EF0F88-F3E5-4471-B494-9CE4C6A6B3F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80016A4A-3FCA-48C1-954F-17FA2E64C222}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2522,8 +2522,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3541395" y="22909530"/>
-          <a:ext cx="1019175" cy="981075"/>
+          <a:off x="3540125" y="23437850"/>
+          <a:ext cx="1019175" cy="1006475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2557,7 +2557,7 @@
         <xdr:cNvPr id="6" name="Picture 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B5E9480-3308-4090-9684-A5787232DD35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C683D50C-3736-4CEC-9ED3-9ACA3A1605EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,8 +2574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5462905" y="8239125"/>
-          <a:ext cx="533400" cy="1642110"/>
+          <a:off x="5461635" y="8437245"/>
+          <a:ext cx="533400" cy="1682750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2609,7 +2609,7 @@
         <xdr:cNvPr id="7" name="矩形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2C5092-92A0-452B-9C06-169320CE5DF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE5CB68-E1FD-4AF4-806B-B6B193147DC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,8 +2619,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="-5400000">
-          <a:off x="4720590" y="8763000"/>
-          <a:ext cx="632460" cy="381000"/>
+          <a:off x="4711700" y="8978900"/>
+          <a:ext cx="647700" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2684,7 +2684,7 @@
         <xdr:cNvPr id="8" name="Picture 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C3319C-AD47-4C3C-9709-59DC0036EA9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312F527A-3690-4E82-BD82-56B53EAC72DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,8 +2701,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4922520" y="22900005"/>
-          <a:ext cx="1181100" cy="1131570"/>
+          <a:off x="4921250" y="23428325"/>
+          <a:ext cx="1181100" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2736,7 +2736,7 @@
         <xdr:cNvPr id="9" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5AA8CF-32C0-4F19-B21C-F0FAEBC17BC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D184315D-5977-48EB-BA48-5638B0DBF254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,8 +2753,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6589395" y="22919055"/>
-          <a:ext cx="1019175" cy="981075"/>
+          <a:off x="6588125" y="23447375"/>
+          <a:ext cx="1019175" cy="1006475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2788,7 +2788,7 @@
         <xdr:cNvPr id="10" name="加号 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D2D7E6-FCDA-4FF9-AC8E-0F2F95C17E5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E0D05A-62AB-401C-A9F0-01F5D4A1D33C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2796,8 +2796,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6069753" y="23284603"/>
-          <a:ext cx="497416" cy="502074"/>
+          <a:off x="6068483" y="23823083"/>
+          <a:ext cx="497416" cy="512234"/>
         </a:xfrm>
         <a:prstGeom prst="mathPlus">
           <a:avLst/>
@@ -2844,7 +2844,7 @@
         <xdr:cNvPr id="11" name="组合 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDB0062-CC1B-46F1-8B71-020AD426BC17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8201A785-2C00-4446-8A01-4E51217E8B5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2852,8 +2852,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1475740" y="26591260"/>
-          <a:ext cx="2209800" cy="1764030"/>
+          <a:off x="1474470" y="27208480"/>
+          <a:ext cx="2209800" cy="1809750"/>
           <a:chOff x="1460500" y="11657542"/>
           <a:chExt cx="2202938" cy="1791758"/>
         </a:xfrm>
@@ -2863,7 +2863,7 @@
           <xdr:cNvPr id="12" name="Picture 2777">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BE79C3-0462-7CDE-9CA5-67CCE2606287}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F456CB91-3A91-00C1-70AF-F49DA50268BD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2900,7 +2900,7 @@
           <xdr:cNvPr id="13" name="椭圆 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C19449C-DE27-868D-8F48-2891460080FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A862E51-D1F2-8FD7-CC33-6B85FF3DEC50}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2930,7 +2930,7 @@
           <xdr:cNvPr id="14" name="椭圆 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97AF704E-12A9-9641-E8B5-C10C1681E82D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED2B9C35-44BB-2F3B-CB56-568F60189E7D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
           <xdr:cNvPr id="15" name="矩形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C68E9B9-2B66-476C-E542-0FFEEF7A7997}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AF4C31-4D0B-1EB3-9A3E-DB9103BE673F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3029,7 +3029,7 @@
           <xdr:cNvPr id="16" name="直接箭头连接符 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9E06E2-CFC6-E242-EF78-4E543FE3477E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554DDDD0-06DE-77E4-9976-A78746164084}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
           <xdr:cNvPr id="17" name="直接箭头连接符 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3B53D4-7E5E-0EE9-E436-56763AB86E48}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF7B3EB-8E82-81CF-DB15-801C7048DCDE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3107,7 +3107,7 @@
         <xdr:cNvPr id="18" name="组合 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E1DA30-DFC1-45E7-AE87-BBDC00B83D99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC8F242-299E-4385-98E6-6DAF1483DA59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3115,8 +3115,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4522470" y="26624280"/>
-          <a:ext cx="1647825" cy="1754505"/>
+          <a:off x="4521200" y="27241500"/>
+          <a:ext cx="1647825" cy="1800225"/>
           <a:chOff x="4546600" y="11695642"/>
           <a:chExt cx="1652057" cy="1781175"/>
         </a:xfrm>
@@ -3126,7 +3126,7 @@
           <xdr:cNvPr id="19" name="Picture 2778">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE15FD6-A515-AA18-C6CD-EB47701C4FE0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF31177-FE02-BE1B-D39B-F9EF6B625C23}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3163,7 +3163,7 @@
           <xdr:cNvPr id="20" name="矩形 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A1CD2D-037A-B20B-8ED6-EAC3B0333466}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C7619C-83CA-972F-F266-4D54C22C61C7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3232,7 +3232,7 @@
           <xdr:cNvPr id="21" name="椭圆 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC60F67E-94D3-7E01-E283-8BD05AC7E7D4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8FDD735-9138-F703-9815-7A61D73B7DC0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3278,7 +3278,7 @@
         <xdr:cNvPr id="22" name="组合 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08B9CC5-935F-4791-973B-8B4379494EBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE263580-435B-4929-9E24-E0903DE1BCC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3286,8 +3286,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1522095" y="30914340"/>
-          <a:ext cx="2828925" cy="1508760"/>
+          <a:off x="1520825" y="31591250"/>
+          <a:ext cx="2828925" cy="1549400"/>
           <a:chOff x="1308101" y="13966825"/>
           <a:chExt cx="2825747" cy="1530350"/>
         </a:xfrm>
@@ -3297,7 +3297,7 @@
           <xdr:cNvPr id="23" name="Picture 2823">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E871628A-973C-A056-2A92-922F08440CEE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9051E262-E6DE-D0AB-E0D9-A7F6A6AE1FBD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3334,7 +3334,7 @@
           <xdr:cNvPr id="24" name="Text Box 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C30090-637A-D8D2-A16C-F4CCA8312270}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD3D248-FE09-1BA6-2D03-442564C4E88E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3395,7 +3395,7 @@
           <xdr:cNvPr id="25" name="直接箭头连接符 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53573B66-E398-E2DE-2D79-866BDC7F08A0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EFBFD1-A831-A6ED-2665-8DDFC9D2D276}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3442,7 +3442,7 @@
         <xdr:cNvPr id="26" name="组合 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{734E5C1A-0562-4E4C-905E-B962F6AC6DFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C341CC-3E4D-4F46-8842-A8BE55FE0695}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3450,8 +3450,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1402715" y="47545625"/>
-          <a:ext cx="2105660" cy="1663065"/>
+          <a:off x="1401445" y="48570515"/>
+          <a:ext cx="2105660" cy="1703705"/>
           <a:chOff x="1685925" y="17602200"/>
           <a:chExt cx="2680468" cy="2095500"/>
         </a:xfrm>
@@ -3461,7 +3461,7 @@
           <xdr:cNvPr id="27" name="Picture 1065">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A80681-990C-1E48-DE1E-48E5F57817E4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED54277-F699-83F4-8289-C48BFC3DF544}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3498,7 +3498,7 @@
           <xdr:cNvPr id="28" name="直接箭头连接符 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A4FBA8-1A6C-A201-F947-A5254A7866BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E6C14E-32AE-52C3-1622-F1EC2ADEC582}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3529,7 +3529,7 @@
           <xdr:cNvPr id="29" name="直接连接符 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E605A49-5E93-9D59-B41D-54403CAEA3EE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A554399-5234-242A-EFAD-4AA1690AF28B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3559,7 +3559,7 @@
           <xdr:cNvPr id="30" name="直接箭头连接符 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD64B6B-0CA0-D5FC-2956-12FFCC32582C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BA2D0D-8634-2345-939B-5FEFF5E8DA64}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3590,7 +3590,7 @@
           <xdr:cNvPr id="31" name="矩形 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{317BB57D-7EE7-695F-8F1B-82040236C722}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F499BD3A-E0DD-BAAC-CCB1-14F30D52831E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3650,7 +3650,7 @@
         <xdr:cNvPr id="32" name="Picture 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5111330-6CCA-4DAC-B69E-A7CB405966B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF2F360-1FB6-44E8-9AF3-A28B98304DB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3667,7 +3667,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1510665" y="28816935"/>
+          <a:off x="1509395" y="29484955"/>
           <a:ext cx="2620010" cy="1616075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3702,7 +3702,7 @@
         <xdr:cNvPr id="33" name="CheckBox38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA55636B-81E8-43AB-97DA-935CAD184D85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D8A73E-4B90-45AC-9B82-1DC40BEF00E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3725,7 +3725,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1960245" y="9938385"/>
+          <a:off x="1958975" y="10182225"/>
           <a:ext cx="152400" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3767,7 +3767,7 @@
         <xdr:cNvPr id="34" name="CheckBox35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10F8BF6-FE5D-4CB9-A409-77B29051F3F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0947A732-6E34-4AA2-A7AB-30BE2B0BF42F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3790,7 +3790,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2086610" y="24015700"/>
+          <a:off x="2085340" y="24574500"/>
           <a:ext cx="152400" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3832,7 +3832,7 @@
         <xdr:cNvPr id="35" name="CheckBox17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF234BA-94D7-4D0D-A0D4-384FA5006043}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FCFDF1-4ED9-47A8-85F9-C903811FB460}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3855,8 +3855,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1579245" y="24437340"/>
-          <a:ext cx="152400" cy="179069"/>
+          <a:off x="1577975" y="25006300"/>
+          <a:ext cx="152400" cy="184149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3897,7 +3897,7 @@
         <xdr:cNvPr id="36" name="CheckBox1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0E9738-3567-4BBA-8866-45D888F17400}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7E396B-DA8E-4E39-A4D4-98E6786DF508}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3920,8 +3920,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1722120" y="434340"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1720850" y="444500"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3962,7 +3962,7 @@
         <xdr:cNvPr id="37" name="CheckBox3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DE6EFF-A6F7-4415-86FE-C69C8DF2E259}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EA7F23-840E-425B-8DD9-0BD9B25403D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3985,8 +3985,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1722120" y="1325880"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1720850" y="1358900"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4027,7 +4027,7 @@
         <xdr:cNvPr id="38" name="CheckBox4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874B9570-E1AB-438E-B469-26D0DE1F333D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B2B7FE-83D9-4E37-90F2-F0952D4223F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4050,8 +4050,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3977640" y="1313180"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="3976370" y="1346200"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4092,7 +4092,7 @@
         <xdr:cNvPr id="39" name="CheckBox8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2597E12-A2BF-4D26-BADE-B3BC51E3AF6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EAAB36-0A31-4E6F-BAD1-B0D95FC68A67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4115,8 +4115,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1712595" y="2207895"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1711325" y="2263775"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4157,7 +4157,7 @@
         <xdr:cNvPr id="40" name="CheckBox9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B373F7A8-F1D1-4E85-8D8E-DCE88498E892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB801DD-77C7-452D-9423-DD42E6F267FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4180,8 +4180,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1722120" y="434340"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1720850" y="444500"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4222,7 +4222,7 @@
         <xdr:cNvPr id="41" name="CheckBox21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1DA971-9EBE-4CE3-A4D8-93B70462FB72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658DF00F-8C48-4A08-A909-2494B1149E6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4245,8 +4245,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1764030" y="1726565"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1762760" y="1769745"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4287,7 +4287,7 @@
         <xdr:cNvPr id="42" name="CheckBox24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B282ED-D1EE-4554-AA18-675FFC9DE0B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BD5435-44DA-4F69-BE9A-78E7C4DF1B93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4310,8 +4310,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1722120" y="2613660"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1720850" y="2679700"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4352,7 +4352,7 @@
         <xdr:cNvPr id="43" name="CheckBox26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02274743-E561-4E5D-8340-910FFBF097EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD369CA-6B3F-4DBD-A3FB-3A084006A646}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4375,8 +4375,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1722120" y="2613660"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1720850" y="2679700"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4417,7 +4417,7 @@
         <xdr:cNvPr id="44" name="CheckBox31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A71B694-8766-4A00-9EE6-E19FE9A7BF9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9257F96A-2C3F-402F-AA02-8890FFFD479F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4440,8 +4440,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1712595" y="3297555"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1711325" y="3381375"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4482,7 +4482,7 @@
         <xdr:cNvPr id="45" name="CheckBox34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7FDC5C-F2CD-47EB-9BA1-D185FC8FE240}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F09BF1-FE04-4832-9D55-CA5FF131CA4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4505,8 +4505,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1712595" y="3693795"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1711325" y="3787775"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4547,7 +4547,7 @@
         <xdr:cNvPr id="46" name="CheckBox43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE814C6-8908-4E2E-8C61-1ECDB0BC1A9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EFA7534-BABD-48D8-9FA4-0660AE371E36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4570,8 +4570,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1712595" y="3693795"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1711325" y="3787775"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4612,7 +4612,7 @@
         <xdr:cNvPr id="47" name="CheckBox44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8851D953-5A3C-49D0-A9FC-9C32652D59E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A72F716-148F-48C4-B6F5-8FF1F483BC18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4635,8 +4635,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1531620" y="25288875"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1530350" y="25873075"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4677,7 +4677,7 @@
         <xdr:cNvPr id="48" name="CheckBox45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FC4D14-EFCF-424C-AD40-0D518D8C1B9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFBA2B8-E932-40E5-A54B-F9AC48E772CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4700,8 +4700,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1522095" y="25496520"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1520825" y="26085800"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4742,7 +4742,7 @@
         <xdr:cNvPr id="49" name="CheckBox51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A65D5E-58DC-4228-98D6-2CD9ADE4A87D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7AB49D9-6C29-48B4-84B3-51A77672C8A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4765,8 +4765,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1703070" y="4189095"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1701800" y="4295775"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4799,15 +4799,15 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4586605</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>201295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="50" name="CheckBox12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16271270-E01F-482E-9755-32FD0FC482A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FFF02F-57B0-4323-B211-4AC9E88F4385}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4830,7 +4830,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5699125" y="9949180"/>
+          <a:off x="5697855" y="10193020"/>
           <a:ext cx="152400" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4872,7 +4872,7 @@
         <xdr:cNvPr id="51" name="CheckBox12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8732F300-4797-41A0-924A-F9E6FE9E4F72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCAD199-07F8-4603-A5B0-5AA46E36E73B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4895,8 +4895,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3693160" y="9969500"/>
-          <a:ext cx="152400" cy="176530"/>
+          <a:off x="3691890" y="10213340"/>
+          <a:ext cx="152400" cy="181610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4924,15 +4924,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>441960</xdr:colOff>
+          <xdr:colOff>438150</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>594360</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4942,7 +4942,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2577F566-5CC7-47D8-BD78-0A6E6150FC6F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{829197DC-2647-40E6-B751-6602353CBCDC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5000,7 +5000,7 @@
         <xdr:cNvPr id="52" name="CheckBox9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C819815-29BA-4F9A-94BC-31B15D4C1911}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0C58C4-7F24-4DBA-AD74-B781EC766A13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5023,8 +5023,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4013200" y="417830"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="4011930" y="427990"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5056,7 +5056,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>46990</xdr:colOff>
+      <xdr:colOff>69850</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -5065,7 +5065,7 @@
         <xdr:cNvPr id="53" name="图片 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53FDDDC-E5D9-40B9-AADD-9360D7A51BBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B08DDE-2BB6-4DAD-B491-7EE1713E98A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5081,8 +5081,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7799705" y="10358755"/>
-          <a:ext cx="3806825" cy="3557905"/>
+          <a:off x="7797165" y="10612755"/>
+          <a:ext cx="3804285" cy="3623945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5113,7 +5113,7 @@
         <xdr:cNvPr id="54" name="Picture 262">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F68ADB8-9884-48FC-A528-2429A2A6D003}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F538D23C-1BAE-437F-A278-3A181DE8D503}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5136,8 +5136,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1537335" y="33754060"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1536065" y="34497010"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5178,7 +5178,7 @@
         <xdr:cNvPr id="55" name="CheckBox38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE13AAC-4451-44B8-B734-BD52C0D2208C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA909231-C8F7-47CA-AE14-1EAAE3D2F131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5201,8 +5201,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7240905" y="9970770"/>
-          <a:ext cx="152400" cy="176530"/>
+          <a:off x="7239635" y="10214610"/>
+          <a:ext cx="152400" cy="181610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5243,7 +5243,7 @@
         <xdr:cNvPr id="56" name="Picture 262">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC6DA7F-499A-4797-92EC-3B3887F4AAFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD32620E-F197-44F4-9C60-70AD71117101}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5266,7 +5266,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1537335" y="39590980"/>
+          <a:off x="1536065" y="40478710"/>
           <a:ext cx="152400" cy="183515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5308,7 +5308,7 @@
         <xdr:cNvPr id="57" name="图片 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C17E5DB-2E68-41CB-A3B4-01A5872E8DE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8F3AE4-3068-40FE-B44F-357051D2DB89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5324,8 +5324,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4436110" y="47452915"/>
-          <a:ext cx="2106930" cy="1823720"/>
+          <a:off x="4434840" y="48472725"/>
+          <a:ext cx="2106930" cy="1874520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5347,7 +5347,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>494030</xdr:colOff>
+      <xdr:colOff>608330</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>86360</xdr:rowOff>
     </xdr:to>
@@ -5356,7 +5356,7 @@
         <xdr:cNvPr id="58" name="图片 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F189EF-58FF-4CE8-8CC4-9E7456CAFA17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C9A587-BFED-43FA-842C-866DBCCA1007}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5372,8 +5372,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7748905" y="14100175"/>
-          <a:ext cx="9653905" cy="3489325"/>
+          <a:off x="7746365" y="14425295"/>
+          <a:ext cx="9651365" cy="3580765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5395,7 +5395,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>106045</xdr:colOff>
+      <xdr:colOff>145415</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>26035</xdr:rowOff>
     </xdr:to>
@@ -5404,7 +5404,7 @@
         <xdr:cNvPr id="59" name="图片 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1E2F2E-BD07-49FC-9016-997443D86E50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6258E85-3F7A-41F2-BC89-9690E6A8F7E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5420,8 +5420,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7827645" y="20880705"/>
-          <a:ext cx="5346700" cy="1959610"/>
+          <a:off x="7825105" y="21383625"/>
+          <a:ext cx="5344160" cy="1985010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5452,7 +5452,7 @@
         <xdr:cNvPr id="60" name="图片 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B677DD-687E-40D2-BEC0-F514D8ABAEA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A2BCCE-E8F9-4892-A811-81AD51A374DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5468,8 +5468,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1343660" y="13510260"/>
-          <a:ext cx="2573020" cy="2589530"/>
+          <a:off x="1342390" y="13820140"/>
+          <a:ext cx="2573020" cy="2655570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5491,7 +5491,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>86995</xdr:colOff>
+      <xdr:colOff>121285</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>90170</xdr:rowOff>
     </xdr:to>
@@ -5500,7 +5500,7 @@
         <xdr:cNvPr id="61" name="图片 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A5A144-2AC9-4CEB-87AF-EF03F9569D1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80602042-004D-41ED-A462-905CE6E16E84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5516,8 +5516,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7825740" y="17737455"/>
-          <a:ext cx="4575175" cy="3025775"/>
+          <a:off x="7823200" y="18159095"/>
+          <a:ext cx="4572635" cy="3101975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5548,7 +5548,7 @@
         <xdr:cNvPr id="62" name="组合 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD95FE5-B732-48A1-82CC-6C065E65D6AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A588D4-FE6D-4F91-9F64-0F2977B00275}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5556,8 +5556,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4180840" y="13447395"/>
-          <a:ext cx="3369945" cy="2726055"/>
+          <a:off x="4179570" y="13757275"/>
+          <a:ext cx="3369945" cy="2797175"/>
           <a:chOff x="609600" y="3352800"/>
           <a:chExt cx="5391150" cy="4437277"/>
         </a:xfrm>
@@ -5567,7 +5567,7 @@
           <xdr:cNvPr id="63" name="图片 115">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2555C11F-AFE0-8C9B-5BC7-06DB2847A8A8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063EF0A9-2D42-C56D-376B-0404F94F4C65}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5600,7 +5600,7 @@
           <xdr:cNvPr id="1024" name="直接箭头连接符 116">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4204C71-0CE2-1D96-9312-521DF835DF8F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE1B949-F1CC-5307-456A-64D75B191C71}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5639,7 +5639,7 @@
           <xdr:cNvPr id="1026" name="矩形 117">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52EE9929-6F98-7647-1867-EF643FC06A59}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F47DE67-AAF5-6F43-8F05-0ECB9E3900A2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5782,7 +5782,7 @@
           <xdr:cNvPr id="1027" name="直接箭头连接符 118">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C756223-63CC-529A-60EB-631EC36C6A0F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CD5779-74D1-0E39-F454-F82CD88425FB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5821,7 +5821,7 @@
           <xdr:cNvPr id="1028" name="矩形 119">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E71046-D80A-8BFC-166B-C2D72ACC822E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52D507F-304C-24E4-F13D-11736CC0B52D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5964,7 +5964,7 @@
           <xdr:cNvPr id="1029" name="直接箭头连接符 120">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F84308C-9BF6-AC0C-8BD3-F64B0C44FD0C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F129963-7ACA-0764-05C0-5CF7488DD17A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6007,7 +6007,7 @@
           <xdr:cNvPr id="1030" name="文本框 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DC15F5-5EA1-B716-549E-044B3696D086}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410EE521-A066-751B-58F3-3E3E28C2F535}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6145,7 +6145,7 @@
           <xdr:cNvPr id="1031" name="直接箭头连接符 122">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E8CBDB-8024-BA78-85D2-C53A4A757C6A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62807788-78D4-1D01-D5F6-44E567BDA0E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6186,7 +6186,7 @@
           <xdr:cNvPr id="1032" name="文本框 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D54BF0-0DA8-0C8A-0A75-65047C420830}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34BA5383-91F8-88C3-DB06-2DD23E83284D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6340,7 +6340,7 @@
         <xdr:cNvPr id="1033" name="CheckBox44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81FBBCE7-B7F8-4CE4-A750-6FDBC4AB71B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26F6BED-4119-4B19-9D6A-1709FE555BDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6363,8 +6363,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1531620" y="25486995"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1530350" y="26076275"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6405,7 +6405,7 @@
         <xdr:cNvPr id="1034" name="文本框 1033">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99C90AE-666B-49A2-8E54-21EE5CA0C615}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC63A10F-6A33-42F7-BC8B-8FF1C695E706}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6413,8 +6413,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4935220" y="13714730"/>
-          <a:ext cx="1614805" cy="289560"/>
+          <a:off x="4933950" y="14029690"/>
+          <a:ext cx="1614805" cy="299720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6496,7 +6496,7 @@
         <xdr:cNvPr id="1035" name="图片 1034">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B9B1CE-A406-4A73-8118-BDE5E214061B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403C3C00-2E40-48DF-8E33-C8951E4C834F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6512,8 +6512,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1626870" y="40377745"/>
-          <a:ext cx="4361180" cy="2571750"/>
+          <a:off x="1625600" y="41273095"/>
+          <a:ext cx="4361180" cy="2597150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6544,7 +6544,7 @@
         <xdr:cNvPr id="1036" name="图片 1035">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8C4CEA0-DBAE-4DB4-BC06-7857A105BF0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E826FC-0A1B-4280-B30D-2823BFE8F05A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6560,8 +6560,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4568825" y="37501195"/>
-          <a:ext cx="3007995" cy="1558925"/>
+          <a:off x="4567555" y="38340665"/>
+          <a:ext cx="3007995" cy="1594485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6592,7 +6592,7 @@
         <xdr:cNvPr id="1037" name="图片 1036">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66518D07-4331-48B1-B3F4-684C3481E04E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E82B1C6-43CB-4A56-B584-F566D79564B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6608,8 +6608,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1281430" y="34389695"/>
-          <a:ext cx="3290570" cy="2811780"/>
+          <a:off x="1280160" y="35147885"/>
+          <a:ext cx="3290570" cy="2882900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6640,7 +6640,7 @@
         <xdr:cNvPr id="1038" name="图片 1037">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6537C44E-AB97-4B0C-BCF7-0052783995F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF15AD3F-5462-4715-8166-65FD840BE2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6656,8 +6656,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1250315" y="37708205"/>
-          <a:ext cx="3282950" cy="1245870"/>
+          <a:off x="1250315" y="38552755"/>
+          <a:ext cx="3281680" cy="1276350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6688,7 +6688,7 @@
         <xdr:cNvPr id="1039" name="图片 1038">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D75E2A9-7121-4FF6-86D9-866E37BAB20A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDDAA51-F64C-4527-8F61-E5D2FF79A412}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6704,8 +6704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4759325" y="34535110"/>
-          <a:ext cx="2842260" cy="2696845"/>
+          <a:off x="4758055" y="35298380"/>
+          <a:ext cx="2842260" cy="2762885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6736,7 +6736,7 @@
         <xdr:cNvPr id="1040" name="图片 1039">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA3AF64-70F7-4C86-A918-628057AFEEF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89B3791-1E1C-4746-A4E0-2FD3EAA00AED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6752,8 +6752,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="44665265"/>
-          <a:ext cx="4322445" cy="1905000"/>
+          <a:off x="1827530" y="45621575"/>
+          <a:ext cx="4322445" cy="1950720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6775,7 +6775,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>344805</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>230</xdr:row>
       <xdr:rowOff>128905</xdr:rowOff>
     </xdr:to>
@@ -6784,7 +6784,7 @@
         <xdr:cNvPr id="1041" name="图片 1040">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC1E63E-C0B7-437D-BA1C-511415BBF6D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26424927-AF6B-4D82-8518-A8FFD4021161}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6800,8 +6800,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7934325" y="45157390"/>
-          <a:ext cx="4792980" cy="4806315"/>
+          <a:off x="7931785" y="46123860"/>
+          <a:ext cx="4790440" cy="4925695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6832,7 +6832,7 @@
         <xdr:cNvPr id="1042" name="图片 1041">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E48AF73-6BAE-493D-86AE-25DE56CBDCAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059A671C-3A5C-4231-B068-89EDC78C8C1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6848,8 +6848,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1210945" y="16816070"/>
-          <a:ext cx="6363335" cy="3063240"/>
+          <a:off x="1210945" y="17212310"/>
+          <a:ext cx="6362065" cy="3139440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6871,7 +6871,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1270</xdr:colOff>
+      <xdr:colOff>2540</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
@@ -6880,7 +6880,7 @@
         <xdr:cNvPr id="1043" name="图片 1042">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B21304-D56C-4FF3-9BA2-8C18827D2734}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F375FE-0EF3-4973-A546-3FD0864E0A5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6896,8 +6896,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6242050" y="8742045"/>
-          <a:ext cx="1470660" cy="939800"/>
+          <a:off x="6240780" y="8950325"/>
+          <a:ext cx="1470660" cy="965200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6928,7 +6928,7 @@
         <xdr:cNvPr id="1044" name="图片 1043">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE0A1CF-D9AA-4F40-B3A4-F91E2876FF2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A23E61-D5AC-4424-B352-B14F06C0BDFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6944,8 +6944,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6008370" y="5941695"/>
-          <a:ext cx="3392805" cy="1607820"/>
+          <a:off x="6007100" y="6089015"/>
+          <a:ext cx="3388995" cy="1643380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6976,7 +6976,7 @@
         <xdr:cNvPr id="1045" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D7392BC-3742-4D38-89D1-C69CD381FACB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E33B7C02-6712-4DCE-AA28-C8470EBB9F6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6992,8 +6992,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3658870" y="6009640"/>
-          <a:ext cx="2172335" cy="1588770"/>
+          <a:off x="3657600" y="6162040"/>
+          <a:ext cx="2172335" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7024,7 +7024,7 @@
         <xdr:cNvPr id="1046" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FEA491-68D5-4D85-A244-5BA24A4984BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8D0723-7E7A-451E-B56B-3D39EB4F99A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7040,8 +7040,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1436370" y="5852795"/>
-          <a:ext cx="2019300" cy="1702435"/>
+          <a:off x="1435100" y="6000115"/>
+          <a:ext cx="2019300" cy="1737995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12652,7 +12652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C09B25-9D0C-4E2D-B274-220EA14867EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28710AFF-9B9B-4077-BC65-2128FA05F502}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -12662,15 +12662,15 @@
       <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="84.59765625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="6.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.09765625" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="84.58203125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -12689,196 +12689,196 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34"/>
     </row>
-    <row r="35" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="4"/>
     </row>
@@ -12886,15 +12886,15 @@
       <c r="A39" s="5"/>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
     </row>
-    <row r="41" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
     </row>
-    <row r="42" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>27</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="19" t="s">
         <v>29</v>
@@ -12911,52 +12911,52 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="21"/>
       <c r="C44" s="20"/>
     </row>
-    <row r="45" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="21"/>
       <c r="C45" s="20"/>
     </row>
-    <row r="46" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="21"/>
       <c r="C46" s="20"/>
     </row>
-    <row r="47" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="21"/>
       <c r="C47" s="20"/>
     </row>
-    <row r="48" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="21"/>
       <c r="C48" s="20"/>
     </row>
-    <row r="49" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="21"/>
       <c r="C49" s="20"/>
     </row>
-    <row r="50" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="21"/>
       <c r="C50" s="20"/>
     </row>
-    <row r="51" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="21"/>
       <c r="C51" s="20"/>
     </row>
-    <row r="52" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="22"/>
       <c r="C52" s="20"/>
     </row>
-    <row r="53" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="23" t="s">
         <v>31</v>
@@ -12968,235 +12968,235 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
       <c r="B58" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="23"/>
     </row>
-    <row r="64" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="25"/>
     </row>
-    <row r="67" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="26"/>
     </row>
-    <row r="68" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="26"/>
     </row>
-    <row r="69" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="26"/>
     </row>
-    <row r="70" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="26"/>
     </row>
-    <row r="71" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="26"/>
     </row>
-    <row r="72" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
       <c r="B72" s="26"/>
     </row>
-    <row r="73" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="26"/>
     </row>
-    <row r="74" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="26"/>
     </row>
-    <row r="75" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="26"/>
     </row>
-    <row r="76" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18"/>
       <c r="B76" s="26"/>
     </row>
-    <row r="77" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="26"/>
     </row>
-    <row r="78" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
       <c r="B78" s="26"/>
     </row>
-    <row r="79" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="26"/>
     </row>
-    <row r="80" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="26"/>
     </row>
-    <row r="81" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="26"/>
     </row>
-    <row r="82" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="26"/>
     </row>
-    <row r="83" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="26"/>
     </row>
-    <row r="84" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
       <c r="B84" s="26"/>
     </row>
-    <row r="85" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="26"/>
     </row>
-    <row r="86" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="26"/>
     </row>
-    <row r="87" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18"/>
       <c r="B87" s="26"/>
     </row>
-    <row r="88" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
       <c r="B88" s="26"/>
     </row>
-    <row r="89" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
       <c r="B89" s="26"/>
     </row>
-    <row r="90" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="26"/>
     </row>
-    <row r="91" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="26"/>
     </row>
-    <row r="92" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18"/>
       <c r="B92" s="26"/>
     </row>
-    <row r="93" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18"/>
       <c r="B93" s="26"/>
     </row>
-    <row r="94" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18"/>
       <c r="B94" s="26"/>
     </row>
-    <row r="95" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18"/>
       <c r="B95" s="26"/>
     </row>
-    <row r="96" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18"/>
       <c r="B96" s="26"/>
     </row>
-    <row r="97" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="18"/>
       <c r="B97" s="26"/>
     </row>
-    <row r="98" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18"/>
       <c r="B98" s="26"/>
     </row>
-    <row r="99" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18"/>
       <c r="B99" s="26"/>
     </row>
-    <row r="100" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18"/>
       <c r="B100" s="26"/>
     </row>
-    <row r="101" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18"/>
       <c r="B101" s="26"/>
     </row>
-    <row r="102" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18"/>
       <c r="B102" s="26"/>
     </row>
-    <row r="103" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18"/>
       <c r="B103" s="26"/>
     </row>
-    <row r="104" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18"/>
       <c r="B104" s="26"/>
     </row>
-    <row r="105" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18"/>
       <c r="B105" s="26"/>
     </row>
-    <row r="106" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18"/>
       <c r="B106" s="27"/>
     </row>
-    <row r="107" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="28"/>
       <c r="B107" s="13"/>
     </row>
-    <row r="108" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="15"/>
     </row>
@@ -13208,49 +13208,49 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18"/>
       <c r="B110" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
       <c r="B111" s="21"/>
     </row>
-    <row r="112" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18"/>
       <c r="B112" s="21"/>
     </row>
-    <row r="113" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18"/>
       <c r="B113" s="21"/>
     </row>
-    <row r="114" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18"/>
       <c r="B114" s="21"/>
     </row>
-    <row r="115" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18"/>
       <c r="B115" s="21"/>
     </row>
-    <row r="116" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18"/>
       <c r="B116" s="22"/>
     </row>
-    <row r="117" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
       <c r="B117" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18"/>
       <c r="B118" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="28"/>
       <c r="B119" s="9"/>
     </row>
@@ -13258,7 +13258,7 @@
       <c r="A120" s="14"/>
       <c r="B120" s="15"/>
     </row>
-    <row r="121" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="29" t="s">
         <v>46</v>
       </c>
@@ -13274,79 +13274,79 @@
       <c r="J121" s="30"/>
       <c r="K121" s="30"/>
     </row>
-    <row r="122" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="31"/>
       <c r="B122" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="31"/>
       <c r="B123" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="31"/>
       <c r="B124" s="4"/>
     </row>
-    <row r="125" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="31"/>
       <c r="B125" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="32" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" s="32" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="31"/>
       <c r="B126" s="4"/>
     </row>
-    <row r="127" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="31"/>
       <c r="B127" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="31"/>
       <c r="B128" s="33"/>
     </row>
-    <row r="129" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="31"/>
       <c r="B129" s="34"/>
     </row>
-    <row r="130" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="31"/>
       <c r="B130" s="34"/>
     </row>
-    <row r="131" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="31"/>
       <c r="B131" s="34"/>
     </row>
-    <row r="132" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="31"/>
       <c r="B132" s="34"/>
     </row>
-    <row r="133" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="31"/>
       <c r="B133" s="34"/>
     </row>
-    <row r="134" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="31"/>
       <c r="B134" s="34"/>
     </row>
-    <row r="135" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="31"/>
       <c r="B135" s="34"/>
     </row>
-    <row r="136" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="31"/>
       <c r="B136" s="34"/>
     </row>
-    <row r="137" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="31"/>
       <c r="B137" s="34"/>
     </row>
-    <row r="138" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="31"/>
       <c r="B138" s="35"/>
     </row>
@@ -13356,66 +13356,66 @@
         <v>52</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="31"/>
       <c r="B140" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="31"/>
       <c r="B141" s="33"/>
     </row>
-    <row r="142" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="31"/>
       <c r="B142" s="34"/>
     </row>
-    <row r="143" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="31"/>
       <c r="B143" s="34"/>
     </row>
-    <row r="144" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="31"/>
       <c r="B144" s="34"/>
     </row>
-    <row r="145" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="31"/>
       <c r="B145" s="34"/>
     </row>
-    <row r="146" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="31"/>
       <c r="B146" s="34"/>
     </row>
-    <row r="147" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="31"/>
       <c r="B147" s="34"/>
     </row>
-    <row r="148" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="31"/>
       <c r="B148" s="34"/>
     </row>
-    <row r="149" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="31"/>
       <c r="B149" s="35"/>
     </row>
-    <row r="150" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="37"/>
       <c r="B150" s="38"/>
     </row>
-    <row r="151" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="37"/>
       <c r="B151" s="39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="37"/>
       <c r="B152" s="38"/>
     </row>
-    <row r="153" spans="1:2" s="32" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="40"/>
     </row>
-    <row r="154" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="41" t="s">
         <v>55</v>
       </c>
@@ -13423,278 +13423,278 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="43"/>
       <c r="B155" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="43"/>
       <c r="B156" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="43"/>
       <c r="B157" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="43"/>
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="43"/>
       <c r="B159" s="4"/>
     </row>
-    <row r="160" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="43"/>
       <c r="B160" s="4"/>
     </row>
-    <row r="161" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="43"/>
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="43"/>
       <c r="B162" s="4"/>
     </row>
-    <row r="163" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="43"/>
       <c r="B163" s="4"/>
     </row>
-    <row r="164" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="43"/>
       <c r="B164" s="4"/>
     </row>
-    <row r="165" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="43"/>
       <c r="B165" s="4"/>
     </row>
-    <row r="166" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="43"/>
       <c r="B166" s="4"/>
     </row>
-    <row r="167" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="43"/>
       <c r="B167" s="4"/>
     </row>
-    <row r="168" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="43"/>
       <c r="B168" s="4"/>
     </row>
-    <row r="169" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="43"/>
       <c r="B169" s="4"/>
     </row>
-    <row r="170" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="43"/>
       <c r="B170" s="4"/>
     </row>
-    <row r="171" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="43"/>
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="43"/>
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="43"/>
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="43"/>
       <c r="B174" s="4"/>
     </row>
-    <row r="175" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="43"/>
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="43"/>
       <c r="B176" s="4"/>
     </row>
-    <row r="177" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="43"/>
       <c r="B177" s="4"/>
     </row>
-    <row r="178" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="43"/>
       <c r="B178" s="4"/>
     </row>
-    <row r="179" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="43"/>
       <c r="B179" s="4"/>
     </row>
-    <row r="180" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="43"/>
       <c r="B180" s="4"/>
     </row>
-    <row r="181" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="43"/>
       <c r="B181" s="17"/>
     </row>
-    <row r="182" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="43"/>
       <c r="B182" s="44"/>
     </row>
-    <row r="183" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="43"/>
       <c r="B183" s="42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="43"/>
       <c r="B184" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="43"/>
       <c r="B185" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="43"/>
       <c r="B186" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="43"/>
       <c r="B187" s="17"/>
     </row>
-    <row r="188" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="43"/>
       <c r="B188" s="17"/>
     </row>
-    <row r="189" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="43"/>
       <c r="B189" s="17"/>
     </row>
-    <row r="190" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="43"/>
       <c r="B190" s="17"/>
     </row>
-    <row r="191" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="43"/>
       <c r="B191" s="17"/>
     </row>
-    <row r="192" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="43"/>
       <c r="B192" s="17"/>
     </row>
-    <row r="193" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="43"/>
       <c r="B193" s="17"/>
     </row>
-    <row r="194" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="43"/>
       <c r="B194" s="17"/>
     </row>
-    <row r="195" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="43"/>
       <c r="B195" s="17"/>
     </row>
-    <row r="196" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="43"/>
       <c r="B196" s="17"/>
     </row>
-    <row r="197" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="43"/>
       <c r="B197" s="17"/>
     </row>
-    <row r="198" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="43"/>
       <c r="B198" s="44"/>
     </row>
-    <row r="199" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="43"/>
       <c r="B199" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="43"/>
       <c r="B200" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="43"/>
       <c r="B201" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="43"/>
       <c r="B202" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="43"/>
       <c r="B203" s="4"/>
     </row>
-    <row r="204" spans="1:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="43"/>
       <c r="B204" s="45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="43"/>
       <c r="B205" s="46"/>
     </row>
-    <row r="206" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="43"/>
       <c r="B206" s="46"/>
     </row>
-    <row r="207" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="43"/>
       <c r="B207" s="46"/>
     </row>
-    <row r="208" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="43"/>
       <c r="B208" s="46"/>
     </row>
-    <row r="209" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="43"/>
       <c r="B209" s="46"/>
     </row>
-    <row r="210" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="43"/>
       <c r="B210" s="46"/>
     </row>
-    <row r="211" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="43"/>
       <c r="B211" s="46"/>
     </row>
-    <row r="212" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="43"/>
       <c r="B212" s="46"/>
     </row>
-    <row r="213" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="43"/>
       <c r="B213" s="46"/>
     </row>
-    <row r="214" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="43"/>
       <c r="B214" s="46"/>
     </row>
-    <row r="215" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="43"/>
       <c r="B215" s="46"/>
     </row>
-    <row r="216" spans="1:4" s="32" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" s="32" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="40"/>
     </row>
-    <row r="217" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="31" t="s">
         <v>68</v>
       </c>
@@ -13703,81 +13703,81 @@
       </c>
       <c r="D217" s="47"/>
     </row>
-    <row r="218" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="31"/>
       <c r="B218" s="25"/>
       <c r="D218" s="48"/>
     </row>
-    <row r="219" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="31"/>
       <c r="B219" s="26"/>
       <c r="D219" s="48"/>
     </row>
-    <row r="220" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="31"/>
       <c r="B220" s="26"/>
       <c r="D220" s="48"/>
     </row>
-    <row r="221" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="31"/>
       <c r="B221" s="26"/>
       <c r="D221" s="48"/>
     </row>
-    <row r="222" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="31"/>
       <c r="B222" s="26"/>
       <c r="D222" s="48"/>
     </row>
-    <row r="223" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="31"/>
       <c r="B223" s="26"/>
       <c r="D223" s="48"/>
     </row>
-    <row r="224" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="31"/>
       <c r="B224" s="26"/>
       <c r="D224" s="48"/>
     </row>
-    <row r="225" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="31"/>
       <c r="B225" s="26"/>
       <c r="D225" s="48"/>
     </row>
-    <row r="226" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="31"/>
       <c r="B226" s="26"/>
       <c r="D226" s="48"/>
     </row>
-    <row r="227" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="31"/>
       <c r="B227" s="26"/>
       <c r="D227" s="48"/>
     </row>
-    <row r="228" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="31"/>
       <c r="B228" s="27"/>
       <c r="D228" s="48"/>
     </row>
-    <row r="229" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A121:A152"/>
@@ -13798,7 +13798,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{9EDAAC4D-9F4C-4E3C-A13D-E8F028B338AB}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{9E347924-106B-4ABC-B1DC-EB30D044B231}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
@@ -13819,15 +13819,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>441960</xdr:colOff>
+                <xdr:colOff>438150</xdr:colOff>
                 <xdr:row>23</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>594360</xdr:colOff>
+                <xdr:colOff>590550</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
